--- a/ReportMaker/test.xlsx
+++ b/ReportMaker/test.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sample sheet" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>Vehicle</x:t>
   </x:si>
@@ -88,6 +88,9 @@
     <x:t>CO2 (kg)</x:t>
   </x:si>
   <x:si>
+    <x:t>VehicleRegistration</x:t>
+  </x:si>
+  <x:si>
     <x:t>DepotName</x:t>
   </x:si>
   <x:si>
@@ -95,6 +98,12 @@
   </x:si>
   <x:si>
     <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BatteryLevelBanding</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total:</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -129,7 +138,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -139,6 +148,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF808080"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -166,7 +180,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -176,17 +190,23 @@
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -199,11 +219,19 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -502,26 +530,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Y36"/>
+  <x:dimension ref="A1:Y40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="25" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="20.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="7" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="8" max="12" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="13" max="24" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="26" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="18.790625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="12.840625" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="18.090625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="12.090625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="10.720625" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.350625" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="14.620625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="6.120625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="12.740625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="12.280625" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="24.370625" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="17.190625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="21.300625" style="1" customWidth="1"/>
+    <x:col min="16" max="16" width="11.560625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="16.810625" style="1" customWidth="1"/>
+    <x:col min="18" max="18" width="18.740625" style="1" customWidth="1"/>
+    <x:col min="19" max="19" width="24.860625" style="1" customWidth="1"/>
+    <x:col min="20" max="20" width="19.880625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="24.690625" style="1" customWidth="1"/>
+    <x:col min="22" max="22" width="26.660625" style="1" customWidth="1"/>
+    <x:col min="23" max="23" width="16.720625" style="1" customWidth="1"/>
+    <x:col min="24" max="24" width="9.210625" style="1" customWidth="1"/>
+    <x:col min="25" max="25" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:25">
+    <x:row r="1" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -579,7 +625,7 @@
       <x:c r="S1" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="2" t="s">
+      <x:c r="T1" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="U1" s="2" t="s">
@@ -596,23 +642,26 @@
       </x:c>
       <x:c r="Y1" s="2" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:25">
+    <x:row r="2" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C2" s="3">
-        <x:v>44684.6743607523</x:v>
-      </x:c>
-      <x:c r="D2" s="3">
-        <x:v>44684.6743608796</x:v>
+      <x:c r="B2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="4">
+        <x:v>44684.910439294</x:v>
+      </x:c>
+      <x:c r="D2" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F2" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F2" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G2" s="4" t="n">
+      <x:c r="G2" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
@@ -627,7 +676,7 @@
       <x:c r="K2" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L2" s="4" t="n">
+      <x:c r="L2" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M2" s="1" t="n">
@@ -637,7 +686,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O2" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P2" s="1" t="n">
         <x:v>2</x:v>
@@ -645,30 +694,48 @@
       <x:c r="Q2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R2" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R2" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="T2" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U2" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W2" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X2" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:25">
+    <x:row r="3" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A3" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C3" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D3" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C3" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D3" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F3" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F3" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G3" s="4" t="n">
+      <x:c r="G3" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
@@ -683,7 +750,7 @@
       <x:c r="K3" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L3" s="4" t="n">
+      <x:c r="L3" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M3" s="1" t="n">
@@ -693,7 +760,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O3" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P3" s="1" t="n">
         <x:v>2</x:v>
@@ -701,30 +768,48 @@
       <x:c r="Q3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R3" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R3" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="T3" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V3" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W3" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X3" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:25">
+    <x:row r="4" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A4" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C4" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D4" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C4" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D4" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G4" s="4" t="n">
+      <x:c r="G4" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
@@ -739,7 +824,7 @@
       <x:c r="K4" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L4" s="4" t="n">
+      <x:c r="L4" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M4" s="1" t="n">
@@ -749,7 +834,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P4" s="1" t="n">
         <x:v>2</x:v>
@@ -757,30 +842,48 @@
       <x:c r="Q4" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R4" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R4" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T4" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U4" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V4" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W4" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X4" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:25">
+    <x:row r="5" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A5" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C5" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D5" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D5" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F5" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F5" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G5" s="4" t="n">
+      <x:c r="G5" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
@@ -795,7 +898,7 @@
       <x:c r="K5" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L5" s="4" t="n">
+      <x:c r="L5" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M5" s="1" t="n">
@@ -805,7 +908,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P5" s="1" t="n">
         <x:v>2</x:v>
@@ -813,30 +916,48 @@
       <x:c r="Q5" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R5" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R5" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="T5" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U5" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V5" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W5" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X5" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:25">
+    <x:row r="6" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C6" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D6" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D6" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F6" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G6" s="4" t="n">
+      <x:c r="G6" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
@@ -851,7 +972,7 @@
       <x:c r="K6" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L6" s="4" t="n">
+      <x:c r="L6" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M6" s="1" t="n">
@@ -861,7 +982,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P6" s="1" t="n">
         <x:v>2</x:v>
@@ -869,30 +990,48 @@
       <x:c r="Q6" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R6" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R6" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T6" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U6" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V6" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W6" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X6" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:25">
+    <x:row r="7" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A7" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C7" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D7" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D7" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F7" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G7" s="4" t="n">
+      <x:c r="G7" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
@@ -907,7 +1046,7 @@
       <x:c r="K7" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L7" s="4" t="n">
+      <x:c r="L7" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M7" s="1" t="n">
@@ -917,7 +1056,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O7" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P7" s="1" t="n">
         <x:v>2</x:v>
@@ -925,30 +1064,48 @@
       <x:c r="Q7" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R7" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R7" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S7" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="T7" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U7" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V7" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W7" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X7" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:25">
+    <x:row r="8" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A8" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C8" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D8" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B8" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D8" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G8" s="4" t="n">
+      <x:c r="G8" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
@@ -963,7 +1120,7 @@
       <x:c r="K8" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L8" s="4" t="n">
+      <x:c r="L8" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M8" s="1" t="n">
@@ -973,7 +1130,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O8" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P8" s="1" t="n">
         <x:v>2</x:v>
@@ -981,30 +1138,48 @@
       <x:c r="Q8" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R8" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R8" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="T8" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U8" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V8" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W8" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X8" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:25">
+    <x:row r="9" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A9" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C9" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D9" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B9" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D9" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G9" s="4" t="n">
+      <x:c r="G9" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
@@ -1019,7 +1194,7 @@
       <x:c r="K9" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L9" s="4" t="n">
+      <x:c r="L9" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M9" s="1" t="n">
@@ -1029,7 +1204,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O9" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P9" s="1" t="n">
         <x:v>2</x:v>
@@ -1037,30 +1212,48 @@
       <x:c r="Q9" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R9" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R9" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T9" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U9" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V9" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W9" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X9" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:25">
+    <x:row r="10" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A10" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C10" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D10" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B10" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C10" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D10" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F10" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G10" s="4" t="n">
+      <x:c r="G10" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
@@ -1075,7 +1268,7 @@
       <x:c r="K10" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L10" s="4" t="n">
+      <x:c r="L10" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M10" s="1" t="n">
@@ -1085,7 +1278,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O10" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P10" s="1" t="n">
         <x:v>2</x:v>
@@ -1093,30 +1286,48 @@
       <x:c r="Q10" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R10" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R10" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S10" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="T10" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U10" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V10" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W10" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X10" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:25">
+    <x:row r="11" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A11" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C11" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D11" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B11" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C11" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D11" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F11" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G11" s="4" t="n">
+      <x:c r="G11" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
@@ -1131,7 +1342,7 @@
       <x:c r="K11" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L11" s="4" t="n">
+      <x:c r="L11" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M11" s="1" t="n">
@@ -1141,7 +1352,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O11" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P11" s="1" t="n">
         <x:v>2</x:v>
@@ -1149,30 +1360,48 @@
       <x:c r="Q11" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R11" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R11" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S11" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="T11" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U11" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V11" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W11" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X11" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:25">
+    <x:row r="12" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A12" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C12" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D12" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B12" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C12" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D12" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F12" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G12" s="4" t="n">
+      <x:c r="G12" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
@@ -1187,7 +1416,7 @@
       <x:c r="K12" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L12" s="4" t="n">
+      <x:c r="L12" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M12" s="1" t="n">
@@ -1197,7 +1426,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O12" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P12" s="1" t="n">
         <x:v>2</x:v>
@@ -1205,30 +1434,48 @@
       <x:c r="Q12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R12" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R12" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S12" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="T12" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U12" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V12" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W12" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X12" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:25">
+    <x:row r="13" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A13" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C13" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D13" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B13" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C13" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D13" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F13" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G13" s="4" t="n">
+      <x:c r="G13" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
@@ -1243,7 +1490,7 @@
       <x:c r="K13" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L13" s="4" t="n">
+      <x:c r="L13" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M13" s="1" t="n">
@@ -1253,7 +1500,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O13" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P13" s="1" t="n">
         <x:v>2</x:v>
@@ -1261,30 +1508,48 @@
       <x:c r="Q13" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R13" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R13" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S13" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T13" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U13" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V13" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W13" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X13" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:25">
+    <x:row r="14" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A14" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C14" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D14" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B14" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D14" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F14" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G14" s="4" t="n">
+      <x:c r="G14" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
@@ -1299,7 +1564,7 @@
       <x:c r="K14" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L14" s="4" t="n">
+      <x:c r="L14" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M14" s="1" t="n">
@@ -1309,7 +1574,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O14" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P14" s="1" t="n">
         <x:v>2</x:v>
@@ -1317,30 +1582,48 @@
       <x:c r="Q14" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R14" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R14" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S14" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="T14" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U14" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V14" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W14" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X14" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:25">
+    <x:row r="15" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A15" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C15" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D15" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B15" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C15" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D15" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F15" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G15" s="4" t="n">
+      <x:c r="G15" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
@@ -1355,7 +1638,7 @@
       <x:c r="K15" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L15" s="4" t="n">
+      <x:c r="L15" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M15" s="1" t="n">
@@ -1365,7 +1648,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O15" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P15" s="1" t="n">
         <x:v>2</x:v>
@@ -1373,30 +1656,48 @@
       <x:c r="Q15" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R15" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R15" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="T15" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U15" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V15" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W15" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X15" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:25">
+    <x:row r="16" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A16" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C16" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D16" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B16" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C16" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D16" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F16" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F16" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G16" s="4" t="n">
+      <x:c r="G16" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
@@ -1411,7 +1712,7 @@
       <x:c r="K16" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L16" s="4" t="n">
+      <x:c r="L16" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M16" s="1" t="n">
@@ -1421,7 +1722,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P16" s="1" t="n">
         <x:v>2</x:v>
@@ -1429,30 +1730,48 @@
       <x:c r="Q16" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R16" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R16" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S16" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="T16" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U16" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V16" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W16" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X16" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:25">
+    <x:row r="17" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A17" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C17" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D17" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B17" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C17" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D17" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F17" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F17" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G17" s="4" t="n">
+      <x:c r="G17" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
@@ -1467,7 +1786,7 @@
       <x:c r="K17" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L17" s="4" t="n">
+      <x:c r="L17" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M17" s="1" t="n">
@@ -1477,7 +1796,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P17" s="1" t="n">
         <x:v>2</x:v>
@@ -1485,30 +1804,48 @@
       <x:c r="Q17" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R17" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R17" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="T17" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U17" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V17" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W17" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X17" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:25">
+    <x:row r="18" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A18" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D18" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B18" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C18" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D18" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F18" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F18" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G18" s="4" t="n">
+      <x:c r="G18" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
@@ -1523,7 +1860,7 @@
       <x:c r="K18" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L18" s="4" t="n">
+      <x:c r="L18" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M18" s="1" t="n">
@@ -1533,7 +1870,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O18" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="P18" s="1" t="n">
         <x:v>2</x:v>
@@ -1541,30 +1878,48 @@
       <x:c r="Q18" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R18" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R18" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S18" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T18" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U18" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V18" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W18" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X18" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:25">
+    <x:row r="19" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A19" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C19" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D19" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B19" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C19" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D19" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F19" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F19" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G19" s="4" t="n">
+      <x:c r="G19" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
@@ -1579,7 +1934,7 @@
       <x:c r="K19" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L19" s="4" t="n">
+      <x:c r="L19" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M19" s="1" t="n">
@@ -1589,7 +1944,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O19" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P19" s="1" t="n">
         <x:v>2</x:v>
@@ -1597,30 +1952,48 @@
       <x:c r="Q19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R19" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R19" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S19" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="T19" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U19" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V19" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W19" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X19" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:25">
+    <x:row r="20" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A20" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C20" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D20" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B20" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D20" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F20" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F20" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G20" s="4" t="n">
+      <x:c r="G20" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
@@ -1635,7 +2008,7 @@
       <x:c r="K20" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L20" s="4" t="n">
+      <x:c r="L20" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M20" s="1" t="n">
@@ -1645,7 +2018,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O20" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P20" s="1" t="n">
         <x:v>2</x:v>
@@ -1653,30 +2026,48 @@
       <x:c r="Q20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R20" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R20" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="T20" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U20" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V20" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W20" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X20" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:25">
+    <x:row r="21" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A21" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C21" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D21" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B21" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C21" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D21" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F21" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F21" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G21" s="4" t="n">
+      <x:c r="G21" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
@@ -1691,7 +2082,7 @@
       <x:c r="K21" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L21" s="4" t="n">
+      <x:c r="L21" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M21" s="1" t="n">
@@ -1701,7 +2092,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O21" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P21" s="1" t="n">
         <x:v>2</x:v>
@@ -1709,30 +2100,48 @@
       <x:c r="Q21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R21" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R21" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T21" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U21" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V21" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W21" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X21" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:25">
+    <x:row r="22" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A22" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C22" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D22" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B22" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C22" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D22" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F22" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G22" s="4" t="n">
+      <x:c r="G22" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
@@ -1747,7 +2156,7 @@
       <x:c r="K22" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L22" s="4" t="n">
+      <x:c r="L22" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M22" s="1" t="n">
@@ -1757,7 +2166,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O22" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P22" s="1" t="n">
         <x:v>2</x:v>
@@ -1765,30 +2174,48 @@
       <x:c r="Q22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R22" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R22" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="T22" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U22" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V22" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W22" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X22" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:25">
+    <x:row r="23" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A23" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C23" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D23" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B23" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C23" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D23" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F23" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F23" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G23" s="4" t="n">
+      <x:c r="G23" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
@@ -1803,7 +2230,7 @@
       <x:c r="K23" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L23" s="4" t="n">
+      <x:c r="L23" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M23" s="1" t="n">
@@ -1813,7 +2240,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O23" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P23" s="1" t="n">
         <x:v>2</x:v>
@@ -1821,30 +2248,48 @@
       <x:c r="Q23" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R23" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R23" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T23" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U23" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V23" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W23" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X23" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:25">
+    <x:row r="24" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A24" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C24" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D24" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B24" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C24" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D24" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F24" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F24" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G24" s="4" t="n">
+      <x:c r="G24" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
@@ -1859,7 +2304,7 @@
       <x:c r="K24" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L24" s="4" t="n">
+      <x:c r="L24" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M24" s="1" t="n">
@@ -1869,7 +2314,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O24" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P24" s="1" t="n">
         <x:v>2</x:v>
@@ -1877,30 +2322,48 @@
       <x:c r="Q24" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R24" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R24" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T24" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U24" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V24" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W24" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X24" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:25">
+    <x:row r="25" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A25" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C25" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D25" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B25" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C25" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D25" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F25" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F25" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G25" s="4" t="n">
+      <x:c r="G25" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
@@ -1915,7 +2378,7 @@
       <x:c r="K25" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L25" s="4" t="n">
+      <x:c r="L25" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M25" s="1" t="n">
@@ -1925,7 +2388,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O25" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="P25" s="1" t="n">
         <x:v>2</x:v>
@@ -1933,30 +2396,48 @@
       <x:c r="Q25" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R25" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R25" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S25" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="T25" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U25" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V25" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W25" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X25" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:25">
+    <x:row r="26" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A26" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C26" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D26" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B26" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C26" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D26" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F26" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G26" s="4" t="n">
+      <x:c r="G26" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
@@ -1971,7 +2452,7 @@
       <x:c r="K26" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L26" s="4" t="n">
+      <x:c r="L26" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M26" s="1" t="n">
@@ -1981,7 +2462,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O26" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P26" s="1" t="n">
         <x:v>2</x:v>
@@ -1989,30 +2470,48 @@
       <x:c r="Q26" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R26" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R26" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S26" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="T26" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U26" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V26" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W26" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X26" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:25">
+    <x:row r="27" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A27" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C27" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D27" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B27" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D27" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F27" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F27" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G27" s="4" t="n">
+      <x:c r="G27" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
@@ -2027,7 +2526,7 @@
       <x:c r="K27" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L27" s="4" t="n">
+      <x:c r="L27" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M27" s="1" t="n">
@@ -2037,7 +2536,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O27" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P27" s="1" t="n">
         <x:v>2</x:v>
@@ -2045,30 +2544,48 @@
       <x:c r="Q27" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R27" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R27" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S27" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="T27" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U27" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V27" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W27" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X27" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:25">
+    <x:row r="28" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A28" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C28" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D28" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B28" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C28" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D28" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F28" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F28" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G28" s="4" t="n">
+      <x:c r="G28" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
@@ -2083,7 +2600,7 @@
       <x:c r="K28" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L28" s="4" t="n">
+      <x:c r="L28" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M28" s="1" t="n">
@@ -2093,7 +2610,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O28" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P28" s="1" t="n">
         <x:v>2</x:v>
@@ -2101,30 +2618,48 @@
       <x:c r="Q28" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R28" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R28" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S28" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T28" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U28" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V28" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W28" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X28" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:25">
+    <x:row r="29" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A29" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C29" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D29" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B29" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C29" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D29" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F29" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F29" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G29" s="4" t="n">
+      <x:c r="G29" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
@@ -2139,7 +2674,7 @@
       <x:c r="K29" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L29" s="4" t="n">
+      <x:c r="L29" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M29" s="1" t="n">
@@ -2149,7 +2684,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O29" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P29" s="1" t="n">
         <x:v>2</x:v>
@@ -2157,30 +2692,48 @@
       <x:c r="Q29" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R29" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R29" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="T29" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U29" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V29" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W29" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X29" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:25">
+    <x:row r="30" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A30" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C30" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D30" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B30" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C30" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D30" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F30" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F30" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G30" s="4" t="n">
+      <x:c r="G30" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
@@ -2195,7 +2748,7 @@
       <x:c r="K30" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L30" s="4" t="n">
+      <x:c r="L30" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M30" s="1" t="n">
@@ -2205,7 +2758,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O30" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P30" s="1" t="n">
         <x:v>2</x:v>
@@ -2213,30 +2766,48 @@
       <x:c r="Q30" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R30" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R30" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T30" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U30" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V30" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W30" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X30" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:25">
+    <x:row r="31" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A31" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C31" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D31" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B31" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C31" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D31" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F31" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F31" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G31" s="4" t="n">
+      <x:c r="G31" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
@@ -2251,7 +2822,7 @@
       <x:c r="K31" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L31" s="4" t="n">
+      <x:c r="L31" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M31" s="1" t="n">
@@ -2261,7 +2832,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O31" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="P31" s="1" t="n">
         <x:v>2</x:v>
@@ -2269,30 +2840,48 @@
       <x:c r="Q31" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R31" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R31" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="T31" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U31" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V31" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W31" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X31" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:25">
+    <x:row r="32" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A32" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C32" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D32" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B32" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C32" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D32" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F32" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F32" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G32" s="4" t="n">
+      <x:c r="G32" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
@@ -2307,7 +2896,7 @@
       <x:c r="K32" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L32" s="4" t="n">
+      <x:c r="L32" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M32" s="1" t="n">
@@ -2317,7 +2906,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P32" s="1" t="n">
         <x:v>2</x:v>
@@ -2325,30 +2914,48 @@
       <x:c r="Q32" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R32" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R32" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="T32" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U32" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V32" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W32" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X32" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:25">
+    <x:row r="33" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A33" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C33" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D33" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B33" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C33" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D33" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F33" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F33" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G33" s="4" t="n">
+      <x:c r="G33" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
@@ -2363,7 +2970,7 @@
       <x:c r="K33" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L33" s="4" t="n">
+      <x:c r="L33" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M33" s="1" t="n">
@@ -2373,7 +2980,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O33" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P33" s="1" t="n">
         <x:v>2</x:v>
@@ -2381,30 +2988,48 @@
       <x:c r="Q33" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R33" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R33" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T33" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U33" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V33" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W33" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X33" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:25">
+    <x:row r="34" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A34" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C34" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D34" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B34" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C34" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D34" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F34" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F34" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G34" s="4" t="n">
+      <x:c r="G34" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
@@ -2419,7 +3044,7 @@
       <x:c r="K34" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L34" s="4" t="n">
+      <x:c r="L34" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M34" s="1" t="n">
@@ -2429,7 +3054,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P34" s="1" t="n">
         <x:v>2</x:v>
@@ -2437,30 +3062,48 @@
       <x:c r="Q34" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R34" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R34" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T34" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U34" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V34" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W34" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X34" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:25">
+    <x:row r="35" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A35" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C35" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D35" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B35" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C35" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D35" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F35" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F35" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G35" s="4" t="n">
+      <x:c r="G35" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
@@ -2475,7 +3118,7 @@
       <x:c r="K35" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L35" s="4" t="n">
+      <x:c r="L35" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M35" s="1" t="n">
@@ -2485,7 +3128,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O35" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P35" s="1" t="n">
         <x:v>2</x:v>
@@ -2493,30 +3136,48 @@
       <x:c r="Q35" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R35" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R35" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S35" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="T35" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U35" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V35" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W35" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X35" s="1" t="n">
+        <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:25">
+    <x:row r="36" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
       <x:c r="A36" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C36" s="3">
-        <x:v>44684.6743608912</x:v>
-      </x:c>
-      <x:c r="D36" s="3">
-        <x:v>44684.6743608912</x:v>
+      <x:c r="B36" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C36" s="4">
+        <x:v>44684.9104393403</x:v>
+      </x:c>
+      <x:c r="D36" s="4">
+        <x:v>44684.9104393403</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F36" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F36" s="5" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G36" s="4" t="n">
+      <x:c r="G36" s="5" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
@@ -2531,7 +3192,7 @@
       <x:c r="K36" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L36" s="4" t="n">
+      <x:c r="L36" s="5" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M36" s="1" t="n">
@@ -2541,7 +3202,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O36" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P36" s="1" t="n">
         <x:v>2</x:v>
@@ -2549,18 +3210,1000 @@
       <x:c r="Q36" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R36" s="5" t="s">
-        <x:v>26</x:v>
+      <x:c r="R36" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S36" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="T36" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U36" s="1" t="n">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="V36" s="1" t="n">
+        <x:v>-2</x:v>
+      </x:c>
+      <x:c r="W36" s="7" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="X36" s="1" t="n">
+        <x:v>-4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="T40" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U40" s="1" t="n">
+        <x:v>-35</x:v>
+      </x:c>
+      <x:c r="V40" s="1" t="n">
+        <x:v>-70</x:v>
+      </x:c>
+      <x:c r="W40" s="1" t="n">
+        <x:v>-140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:conditionalFormatting sqref="S1:S36">
+    <x:cfRule type="dataBar" priority="1">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{309e02df-75ac-4978-a49a-b9e2cc2dcd96}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="2">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{56503fdc-57f4-4ff4-a408-f01ab45805fe}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="3">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e67180a7-bc9b-4f34-9399-2d05d10cedc6}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="4">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f9dfaadd-9149-4f50-8bf5-8721f22ca07a}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="5">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d6d503e4-bf3c-45a3-8443-f73a1d612fa9}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="6">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3e68f48d-5ea2-4004-8968-676548d39980}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="7">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{492eeb58-16d8-434c-b123-7b71e52a23ab}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="8">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7fc3fd9d-bb81-4556-b590-341bbe699ff3}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="9">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c9209492-3bd3-49d5-a65b-9b2a10616479}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="10">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d4ea21a8-546b-4a6d-8ee4-65c30426a78e}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="11">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a60c99f7-6f02-469b-ba1a-25835a3a6ece}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="12">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f5e4c64-00ec-4069-b0a1-38f190b89ac1}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="13">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3f742b4a-f6f1-4ef5-933d-be4fba09d269}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="14">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ffe367b2-3067-4690-bd97-43ae03e9da41}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="15">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{defa4b1a-7339-4c1e-8185-84c1e33267a1}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="16">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{613621d9-869f-4a09-a286-788221efd1f5}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="17">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d81ac273-0770-4ed0-9c67-1e361316ff1d}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="18">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7cd50127-2efd-479b-aa8d-46832b4aa4bb}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="19">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4c817432-a7e1-4d84-9d02-18e54fd49f93}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="20">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef03272a-40d7-4418-a3f2-410e87afa624}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="21">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ea3481df-86bc-4223-82b8-4c6a9c4b94ab}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="22">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57fdadf4-c90d-4cf8-b651-a90236f9a34c}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="23">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a9a93b8a-956c-4209-ae75-8b95937a0870}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="24">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67e1973c-f210-4962-9821-a73f3446af68}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="25">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b226d547-db80-4b8b-a9da-fe089ea2ab85}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="26">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5ee645a5-a5b3-4e9f-99b5-b46f40431a5c}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="27">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8e2a9992-a0dd-41e2-aeeb-9de94716dd1c}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="28">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15b6112d-e35f-4156-9cd7-7105ac37f757}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="29">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{162ab960-84f9-4828-a39f-85abdb1c02cb}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="30">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10e79fca-2236-4931-875c-9989d82d964a}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="31">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{065fce0d-399a-4556-b4da-7c6d63a21a91}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="32">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9051c638-7ec0-43a0-a38a-c1a0bbe75908}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="33">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b22e82c3-13ce-4736-a8ca-b2d1af54cdf9}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="34">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18f3640a-ca95-46bc-adc4-b9383fe40bf7}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+    <x:cfRule type="dataBar" priority="35">
+      <x:dataBar showValue="1">
+        <x:cfvo type="min" val="0"/>
+        <x:cfvo type="max" val="0"/>
+        <x:color rgb="FF008000"/>
+      </x:dataBar>
+      <x:extLst>
+        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef5d7c3f-464f-4486-8230-8a7061c96677}</x14:id>
+        </x:ext>
+      </x:extLst>
+    </x:cfRule>
+  </x:conditionalFormatting>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{309e02df-75ac-4978-a49a-b9e2cc2dcd96}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{56503fdc-57f4-4ff4-a408-f01ab45805fe}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e67180a7-bc9b-4f34-9399-2d05d10cedc6}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f9dfaadd-9149-4f50-8bf5-8721f22ca07a}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d6d503e4-bf3c-45a3-8443-f73a1d612fa9}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3e68f48d-5ea2-4004-8968-676548d39980}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{492eeb58-16d8-434c-b123-7b71e52a23ab}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7fc3fd9d-bb81-4556-b590-341bbe699ff3}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c9209492-3bd3-49d5-a65b-9b2a10616479}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d4ea21a8-546b-4a6d-8ee4-65c30426a78e}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a60c99f7-6f02-469b-ba1a-25835a3a6ece}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2f5e4c64-00ec-4069-b0a1-38f190b89ac1}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3f742b4a-f6f1-4ef5-933d-be4fba09d269}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ffe367b2-3067-4690-bd97-43ae03e9da41}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{defa4b1a-7339-4c1e-8185-84c1e33267a1}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{613621d9-869f-4a09-a286-788221efd1f5}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d81ac273-0770-4ed0-9c67-1e361316ff1d}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7cd50127-2efd-479b-aa8d-46832b4aa4bb}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4c817432-a7e1-4d84-9d02-18e54fd49f93}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ef03272a-40d7-4418-a3f2-410e87afa624}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ea3481df-86bc-4223-82b8-4c6a9c4b94ab}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57fdadf4-c90d-4cf8-b651-a90236f9a34c}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a9a93b8a-956c-4209-ae75-8b95937a0870}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67e1973c-f210-4962-9821-a73f3446af68}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b226d547-db80-4b8b-a9da-fe089ea2ab85}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5ee645a5-a5b3-4e9f-99b5-b46f40431a5c}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8e2a9992-a0dd-41e2-aeeb-9de94716dd1c}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15b6112d-e35f-4156-9cd7-7105ac37f757}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{162ab960-84f9-4828-a39f-85abdb1c02cb}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10e79fca-2236-4931-875c-9989d82d964a}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{065fce0d-399a-4556-b4da-7c6d63a21a91}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9051c638-7ec0-43a0-a38a-c1a0bbe75908}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b22e82c3-13ce-4736-a8ca-b2d1af54cdf9}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18f3640a-ca95-46bc-adc4-b9383fe40bf7}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ef5d7c3f-464f-4486-8230-8a7061c96677}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF008000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S36</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>
--- a/ReportMaker/test.xlsx
+++ b/ReportMaker/test.xlsx
@@ -7,14 +7,17 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Summary" sheetId="3" r:id="rId3"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$X$37</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>Vehicle</x:t>
   </x:si>
@@ -104,6 +107,42 @@
   </x:si>
   <x:si>
     <x:t>Total:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suitable for EV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>% Of Battery Capacity Used in Shift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suitable For EV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sum of Fuel Cost Savings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;=51% and &lt;65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;=65% and &lt;80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;=80% and &lt;100%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;100%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -113,11 +152,27 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="10"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="10"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -129,16 +184,8 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="6">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -152,12 +199,17 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA500"/>
+        <x:fgColor rgb="FFFF9F00"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFF0000"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF87CEFA"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -180,7 +232,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -205,8 +257,11 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -217,6 +272,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -232,10 +291,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -534,40 +597,40 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Y40"/>
+  <x:dimension ref="A1:Y39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="26" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="18.790625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.840625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="17.250625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.555425" style="1" customWidth="1"/>
     <x:col min="3" max="4" width="20.710625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="18.090625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="12.090625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="10.720625" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="10.350625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="14.620625" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="6.120625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="12.740625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="12.280625" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="24.370625" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="17.190625" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="21.300625" style="1" customWidth="1"/>
-    <x:col min="16" max="16" width="11.560625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="16.810625" style="1" customWidth="1"/>
-    <x:col min="18" max="18" width="18.740625" style="1" customWidth="1"/>
-    <x:col min="19" max="19" width="24.860625" style="1" customWidth="1"/>
-    <x:col min="20" max="20" width="19.880625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="24.690625" style="1" customWidth="1"/>
-    <x:col min="22" max="22" width="26.660625" style="1" customWidth="1"/>
-    <x:col min="23" max="23" width="16.720625" style="1" customWidth="1"/>
-    <x:col min="24" max="24" width="9.210625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="17.495425" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="13.875425" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="12.625425" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="12.295425" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="16.175425" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="8.445425" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="14.455425" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="14.045425" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="25.035425" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="18.505425" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="22.245425" style="1" customWidth="1"/>
+    <x:col min="16" max="16" width="13.385425" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="18.165425" style="1" customWidth="1"/>
+    <x:col min="18" max="18" width="19.915425" style="1" customWidth="1"/>
+    <x:col min="19" max="19" width="25.475425" style="1" customWidth="1"/>
+    <x:col min="20" max="20" width="18.240625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="25.325425" style="1" customWidth="1"/>
+    <x:col min="22" max="22" width="27.115425" style="1" customWidth="1"/>
+    <x:col min="23" max="23" width="18.085425" style="1" customWidth="1"/>
+    <x:col min="24" max="24" width="11.255425" style="1" customWidth="1"/>
     <x:col min="25" max="25" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="1" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -619,13 +682,13 @@
       <x:c r="Q1" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="2" t="s">
+      <x:c r="R1" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="S1" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="3" t="s">
+      <x:c r="T1" s="4" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="U1" s="2" t="s">
@@ -634,7 +697,7 @@
       <x:c r="V1" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="2" t="s">
+      <x:c r="W1" s="4" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="X1" s="2" t="s">
@@ -642,26 +705,26 @@
       </x:c>
       <x:c r="Y1" s="2" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="2" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="4">
-        <x:v>44684.910439294</x:v>
-      </x:c>
-      <x:c r="D2" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C2" s="5">
+        <x:v>44685.4788959144</x:v>
+      </x:c>
+      <x:c r="D2" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F2" s="5" t="n">
+      <x:c r="F2" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G2" s="5" t="n">
+      <x:c r="G2" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
@@ -676,7 +739,7 @@
       <x:c r="K2" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L2" s="5" t="n">
+      <x:c r="L2" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M2" s="1" t="n">
@@ -686,7 +749,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O2" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P2" s="1" t="n">
         <x:v>2</x:v>
@@ -694,13 +757,13 @@
       <x:c r="Q2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R2" s="6" t="s">
+      <x:c r="R2" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S2" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="T2" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="T2" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
@@ -709,33 +772,33 @@
       <x:c r="V2" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W2" s="7" t="n">
+      <x:c r="W2" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X2" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="3" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A3" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C3" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D3" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C3" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D3" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F3" s="5" t="n">
+      <x:c r="F3" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G3" s="5" t="n">
+      <x:c r="G3" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
@@ -750,7 +813,7 @@
       <x:c r="K3" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L3" s="5" t="n">
+      <x:c r="L3" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M3" s="1" t="n">
@@ -760,7 +823,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O3" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P3" s="1" t="n">
         <x:v>2</x:v>
@@ -768,13 +831,13 @@
       <x:c r="Q3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R3" s="6" t="s">
+      <x:c r="R3" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S3" s="1" t="n">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="T3" s="7" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T3" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
@@ -783,33 +846,33 @@
       <x:c r="V3" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W3" s="7" t="n">
+      <x:c r="W3" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X3" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="4" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A4" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C4" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D4" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C4" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D4" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F4" s="5" t="n">
+      <x:c r="F4" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G4" s="5" t="n">
+      <x:c r="G4" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
@@ -824,7 +887,7 @@
       <x:c r="K4" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L4" s="5" t="n">
+      <x:c r="L4" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M4" s="1" t="n">
@@ -834,7 +897,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O4" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P4" s="1" t="n">
         <x:v>2</x:v>
@@ -842,13 +905,13 @@
       <x:c r="Q4" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R4" s="6" t="s">
+      <x:c r="R4" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S4" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="T4" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="T4" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
@@ -857,33 +920,33 @@
       <x:c r="V4" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W4" s="7" t="n">
+      <x:c r="W4" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X4" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="5" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A5" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C5" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D5" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C5" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D5" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F5" s="5" t="n">
+      <x:c r="F5" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G5" s="5" t="n">
+      <x:c r="G5" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
@@ -898,7 +961,7 @@
       <x:c r="K5" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L5" s="5" t="n">
+      <x:c r="L5" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M5" s="1" t="n">
@@ -908,7 +971,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O5" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P5" s="1" t="n">
         <x:v>2</x:v>
@@ -916,13 +979,13 @@
       <x:c r="Q5" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R5" s="6" t="s">
+      <x:c r="R5" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S5" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="T5" s="7" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="T5" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
@@ -931,33 +994,33 @@
       <x:c r="V5" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W5" s="7" t="n">
+      <x:c r="W5" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X5" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="6" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C6" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D6" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C6" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D6" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F6" s="5" t="n">
+      <x:c r="F6" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G6" s="5" t="n">
+      <x:c r="G6" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
@@ -972,7 +1035,7 @@
       <x:c r="K6" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L6" s="5" t="n">
+      <x:c r="L6" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M6" s="1" t="n">
@@ -982,7 +1045,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O6" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="P6" s="1" t="n">
         <x:v>2</x:v>
@@ -990,13 +1053,13 @@
       <x:c r="Q6" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R6" s="6" t="s">
+      <x:c r="R6" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S6" s="1" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="T6" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="T6" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U6" s="1" t="n">
@@ -1005,33 +1068,33 @@
       <x:c r="V6" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W6" s="7" t="n">
+      <x:c r="W6" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X6" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="7" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A7" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C7" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D7" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C7" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D7" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F7" s="5" t="n">
+      <x:c r="F7" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G7" s="5" t="n">
+      <x:c r="G7" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
@@ -1046,7 +1109,7 @@
       <x:c r="K7" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L7" s="5" t="n">
+      <x:c r="L7" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M7" s="1" t="n">
@@ -1056,7 +1119,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O7" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P7" s="1" t="n">
         <x:v>2</x:v>
@@ -1064,13 +1127,13 @@
       <x:c r="Q7" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R7" s="6" t="s">
+      <x:c r="R7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S7" s="1" t="n">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="T7" s="7" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="T7" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
@@ -1079,33 +1142,33 @@
       <x:c r="V7" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W7" s="7" t="n">
+      <x:c r="W7" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X7" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="8" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A8" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C8" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D8" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C8" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D8" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F8" s="5" t="n">
+      <x:c r="F8" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G8" s="5" t="n">
+      <x:c r="G8" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
@@ -1120,7 +1183,7 @@
       <x:c r="K8" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L8" s="5" t="n">
+      <x:c r="L8" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M8" s="1" t="n">
@@ -1130,7 +1193,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O8" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P8" s="1" t="n">
         <x:v>2</x:v>
@@ -1138,13 +1201,13 @@
       <x:c r="Q8" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R8" s="6" t="s">
+      <x:c r="R8" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S8" s="1" t="n">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="T8" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="T8" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
@@ -1153,33 +1216,33 @@
       <x:c r="V8" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W8" s="7" t="n">
+      <x:c r="W8" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X8" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="9" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A9" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C9" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D9" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C9" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D9" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F9" s="5" t="n">
+      <x:c r="F9" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G9" s="5" t="n">
+      <x:c r="G9" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
@@ -1194,7 +1257,7 @@
       <x:c r="K9" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L9" s="5" t="n">
+      <x:c r="L9" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M9" s="1" t="n">
@@ -1204,7 +1267,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O9" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P9" s="1" t="n">
         <x:v>2</x:v>
@@ -1212,13 +1275,13 @@
       <x:c r="Q9" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R9" s="6" t="s">
+      <x:c r="R9" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S9" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="T9" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="T9" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
@@ -1227,33 +1290,33 @@
       <x:c r="V9" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W9" s="7" t="n">
+      <x:c r="W9" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X9" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="10" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A10" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C10" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D10" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C10" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D10" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F10" s="5" t="n">
+      <x:c r="F10" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G10" s="5" t="n">
+      <x:c r="G10" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
@@ -1268,7 +1331,7 @@
       <x:c r="K10" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L10" s="5" t="n">
+      <x:c r="L10" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M10" s="1" t="n">
@@ -1278,7 +1341,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O10" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P10" s="1" t="n">
         <x:v>2</x:v>
@@ -1286,13 +1349,13 @@
       <x:c r="Q10" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R10" s="6" t="s">
+      <x:c r="R10" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S10" s="1" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="T10" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="T10" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
@@ -1301,33 +1364,33 @@
       <x:c r="V10" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W10" s="7" t="n">
+      <x:c r="W10" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X10" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="11" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A11" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C11" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D11" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C11" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D11" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="n">
+      <x:c r="F11" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G11" s="5" t="n">
+      <x:c r="G11" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
@@ -1342,7 +1405,7 @@
       <x:c r="K11" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L11" s="5" t="n">
+      <x:c r="L11" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M11" s="1" t="n">
@@ -1352,7 +1415,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O11" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P11" s="1" t="n">
         <x:v>2</x:v>
@@ -1360,13 +1423,13 @@
       <x:c r="Q11" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R11" s="6" t="s">
+      <x:c r="R11" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S11" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="T11" s="7" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="T11" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
@@ -1375,33 +1438,33 @@
       <x:c r="V11" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W11" s="7" t="n">
+      <x:c r="W11" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X11" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="12" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A12" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C12" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D12" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C12" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D12" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F12" s="5" t="n">
+      <x:c r="F12" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G12" s="5" t="n">
+      <x:c r="G12" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
@@ -1416,7 +1479,7 @@
       <x:c r="K12" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L12" s="5" t="n">
+      <x:c r="L12" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M12" s="1" t="n">
@@ -1426,7 +1489,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O12" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="P12" s="1" t="n">
         <x:v>2</x:v>
@@ -1434,13 +1497,13 @@
       <x:c r="Q12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R12" s="6" t="s">
+      <x:c r="R12" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S12" s="1" t="n">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="T12" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="T12" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
@@ -1449,33 +1512,33 @@
       <x:c r="V12" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W12" s="7" t="n">
+      <x:c r="W12" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X12" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="13" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A13" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C13" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D13" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C13" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D13" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F13" s="5" t="n">
+      <x:c r="F13" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G13" s="5" t="n">
+      <x:c r="G13" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
@@ -1490,7 +1553,7 @@
       <x:c r="K13" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L13" s="5" t="n">
+      <x:c r="L13" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M13" s="1" t="n">
@@ -1500,7 +1563,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O13" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P13" s="1" t="n">
         <x:v>2</x:v>
@@ -1508,13 +1571,13 @@
       <x:c r="Q13" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R13" s="6" t="s">
+      <x:c r="R13" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S13" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="T13" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T13" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
@@ -1523,33 +1586,33 @@
       <x:c r="V13" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W13" s="7" t="n">
+      <x:c r="W13" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X13" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="14" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A14" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C14" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D14" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C14" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D14" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F14" s="5" t="n">
+      <x:c r="F14" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G14" s="5" t="n">
+      <x:c r="G14" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
@@ -1564,7 +1627,7 @@
       <x:c r="K14" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L14" s="5" t="n">
+      <x:c r="L14" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M14" s="1" t="n">
@@ -1574,7 +1637,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O14" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="P14" s="1" t="n">
         <x:v>2</x:v>
@@ -1582,13 +1645,13 @@
       <x:c r="Q14" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R14" s="6" t="s">
+      <x:c r="R14" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S14" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="T14" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="T14" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
@@ -1597,33 +1660,33 @@
       <x:c r="V14" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W14" s="7" t="n">
+      <x:c r="W14" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X14" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="15" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A15" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C15" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D15" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C15" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D15" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F15" s="5" t="n">
+      <x:c r="F15" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G15" s="5" t="n">
+      <x:c r="G15" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
@@ -1638,7 +1701,7 @@
       <x:c r="K15" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L15" s="5" t="n">
+      <x:c r="L15" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M15" s="1" t="n">
@@ -1648,7 +1711,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O15" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P15" s="1" t="n">
         <x:v>2</x:v>
@@ -1656,13 +1719,13 @@
       <x:c r="Q15" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R15" s="6" t="s">
+      <x:c r="R15" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S15" s="1" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="T15" s="7" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="T15" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
@@ -1671,33 +1734,33 @@
       <x:c r="V15" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W15" s="7" t="n">
+      <x:c r="W15" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X15" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="16" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A16" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C16" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D16" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C16" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D16" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F16" s="5" t="n">
+      <x:c r="F16" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G16" s="5" t="n">
+      <x:c r="G16" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
@@ -1712,7 +1775,7 @@
       <x:c r="K16" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L16" s="5" t="n">
+      <x:c r="L16" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M16" s="1" t="n">
@@ -1722,7 +1785,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O16" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P16" s="1" t="n">
         <x:v>2</x:v>
@@ -1730,13 +1793,13 @@
       <x:c r="Q16" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R16" s="6" t="s">
+      <x:c r="R16" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S16" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="T16" s="7" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="T16" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
@@ -1745,33 +1808,33 @@
       <x:c r="V16" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W16" s="7" t="n">
+      <x:c r="W16" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X16" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="17" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A17" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C17" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D17" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C17" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D17" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F17" s="5" t="n">
+      <x:c r="F17" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G17" s="5" t="n">
+      <x:c r="G17" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
@@ -1786,7 +1849,7 @@
       <x:c r="K17" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L17" s="5" t="n">
+      <x:c r="L17" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M17" s="1" t="n">
@@ -1796,7 +1859,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O17" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P17" s="1" t="n">
         <x:v>2</x:v>
@@ -1804,13 +1867,13 @@
       <x:c r="Q17" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R17" s="6" t="s">
+      <x:c r="R17" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S17" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="T17" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="T17" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
@@ -1819,33 +1882,33 @@
       <x:c r="V17" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W17" s="7" t="n">
+      <x:c r="W17" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X17" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="18" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A18" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C18" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D18" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C18" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D18" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F18" s="5" t="n">
+      <x:c r="F18" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G18" s="5" t="n">
+      <x:c r="G18" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
@@ -1860,7 +1923,7 @@
       <x:c r="K18" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L18" s="5" t="n">
+      <x:c r="L18" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M18" s="1" t="n">
@@ -1870,7 +1933,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O18" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P18" s="1" t="n">
         <x:v>2</x:v>
@@ -1878,13 +1941,13 @@
       <x:c r="Q18" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R18" s="6" t="s">
+      <x:c r="R18" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S18" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="T18" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="T18" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
@@ -1893,33 +1956,33 @@
       <x:c r="V18" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W18" s="7" t="n">
+      <x:c r="W18" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X18" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="19" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A19" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D19" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C19" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D19" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F19" s="5" t="n">
+      <x:c r="F19" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G19" s="5" t="n">
+      <x:c r="G19" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
@@ -1934,7 +1997,7 @@
       <x:c r="K19" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L19" s="5" t="n">
+      <x:c r="L19" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M19" s="1" t="n">
@@ -1944,7 +2007,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O19" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P19" s="1" t="n">
         <x:v>2</x:v>
@@ -1952,13 +2015,13 @@
       <x:c r="Q19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R19" s="6" t="s">
+      <x:c r="R19" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S19" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="T19" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="T19" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
@@ -1967,33 +2030,33 @@
       <x:c r="V19" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W19" s="7" t="n">
+      <x:c r="W19" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X19" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="20" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A20" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C20" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D20" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C20" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D20" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F20" s="5" t="n">
+      <x:c r="F20" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G20" s="5" t="n">
+      <x:c r="G20" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
@@ -2008,7 +2071,7 @@
       <x:c r="K20" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L20" s="5" t="n">
+      <x:c r="L20" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M20" s="1" t="n">
@@ -2018,7 +2081,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O20" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P20" s="1" t="n">
         <x:v>2</x:v>
@@ -2026,13 +2089,13 @@
       <x:c r="Q20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R20" s="6" t="s">
+      <x:c r="R20" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S20" s="1" t="n">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="T20" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T20" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
@@ -2041,33 +2104,33 @@
       <x:c r="V20" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W20" s="7" t="n">
+      <x:c r="W20" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X20" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="21" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A21" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C21" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D21" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C21" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D21" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F21" s="5" t="n">
+      <x:c r="F21" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G21" s="5" t="n">
+      <x:c r="G21" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
@@ -2082,7 +2145,7 @@
       <x:c r="K21" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L21" s="5" t="n">
+      <x:c r="L21" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M21" s="1" t="n">
@@ -2092,7 +2155,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O21" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P21" s="1" t="n">
         <x:v>2</x:v>
@@ -2100,13 +2163,13 @@
       <x:c r="Q21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R21" s="6" t="s">
+      <x:c r="R21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S21" s="1" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="T21" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="T21" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
@@ -2115,33 +2178,33 @@
       <x:c r="V21" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W21" s="7" t="n">
+      <x:c r="W21" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X21" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="22" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A22" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C22" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D22" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C22" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D22" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F22" s="5" t="n">
+      <x:c r="F22" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G22" s="5" t="n">
+      <x:c r="G22" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
@@ -2156,7 +2219,7 @@
       <x:c r="K22" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L22" s="5" t="n">
+      <x:c r="L22" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M22" s="1" t="n">
@@ -2166,7 +2229,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O22" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P22" s="1" t="n">
         <x:v>2</x:v>
@@ -2174,13 +2237,13 @@
       <x:c r="Q22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R22" s="6" t="s">
+      <x:c r="R22" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S22" s="1" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="T22" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="T22" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
@@ -2189,33 +2252,33 @@
       <x:c r="V22" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W22" s="7" t="n">
+      <x:c r="W22" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X22" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="23" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A23" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C23" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D23" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C23" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D23" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F23" s="5" t="n">
+      <x:c r="F23" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G23" s="5" t="n">
+      <x:c r="G23" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
@@ -2230,7 +2293,7 @@
       <x:c r="K23" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L23" s="5" t="n">
+      <x:c r="L23" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M23" s="1" t="n">
@@ -2240,7 +2303,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O23" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P23" s="1" t="n">
         <x:v>2</x:v>
@@ -2248,13 +2311,13 @@
       <x:c r="Q23" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R23" s="6" t="s">
+      <x:c r="R23" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S23" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T23" s="7" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="T23" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
@@ -2263,33 +2326,33 @@
       <x:c r="V23" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W23" s="7" t="n">
+      <x:c r="W23" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X23" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="24" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A24" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C24" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D24" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C24" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D24" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F24" s="5" t="n">
+      <x:c r="F24" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G24" s="5" t="n">
+      <x:c r="G24" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
@@ -2304,7 +2367,7 @@
       <x:c r="K24" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L24" s="5" t="n">
+      <x:c r="L24" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M24" s="1" t="n">
@@ -2314,7 +2377,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O24" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P24" s="1" t="n">
         <x:v>2</x:v>
@@ -2322,13 +2385,13 @@
       <x:c r="Q24" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R24" s="6" t="s">
+      <x:c r="R24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S24" s="1" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="T24" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="T24" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
@@ -2337,33 +2400,33 @@
       <x:c r="V24" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W24" s="7" t="n">
+      <x:c r="W24" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X24" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="25" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A25" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C25" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D25" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C25" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D25" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F25" s="5" t="n">
+      <x:c r="F25" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G25" s="5" t="n">
+      <x:c r="G25" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
@@ -2378,7 +2441,7 @@
       <x:c r="K25" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L25" s="5" t="n">
+      <x:c r="L25" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M25" s="1" t="n">
@@ -2388,7 +2451,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O25" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P25" s="1" t="n">
         <x:v>2</x:v>
@@ -2396,13 +2459,13 @@
       <x:c r="Q25" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R25" s="6" t="s">
+      <x:c r="R25" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S25" s="1" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="T25" s="7" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="T25" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
@@ -2411,33 +2474,33 @@
       <x:c r="V25" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W25" s="7" t="n">
+      <x:c r="W25" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X25" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="26" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A26" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C26" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D26" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C26" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D26" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F26" s="5" t="n">
+      <x:c r="F26" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G26" s="5" t="n">
+      <x:c r="G26" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
@@ -2452,7 +2515,7 @@
       <x:c r="K26" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L26" s="5" t="n">
+      <x:c r="L26" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M26" s="1" t="n">
@@ -2462,7 +2525,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O26" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P26" s="1" t="n">
         <x:v>2</x:v>
@@ -2470,13 +2533,13 @@
       <x:c r="Q26" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R26" s="6" t="s">
+      <x:c r="R26" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S26" s="1" t="n">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="T26" s="7" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T26" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
@@ -2485,33 +2548,33 @@
       <x:c r="V26" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W26" s="7" t="n">
+      <x:c r="W26" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X26" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="27" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A27" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C27" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D27" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C27" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D27" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F27" s="5" t="n">
+      <x:c r="F27" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G27" s="5" t="n">
+      <x:c r="G27" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
@@ -2526,7 +2589,7 @@
       <x:c r="K27" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L27" s="5" t="n">
+      <x:c r="L27" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M27" s="1" t="n">
@@ -2536,7 +2599,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O27" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P27" s="1" t="n">
         <x:v>2</x:v>
@@ -2544,13 +2607,13 @@
       <x:c r="Q27" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R27" s="6" t="s">
+      <x:c r="R27" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S27" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="T27" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T27" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
@@ -2559,33 +2622,33 @@
       <x:c r="V27" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W27" s="7" t="n">
+      <x:c r="W27" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X27" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="28" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A28" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C28" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D28" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C28" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D28" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F28" s="5" t="n">
+      <x:c r="F28" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G28" s="5" t="n">
+      <x:c r="G28" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
@@ -2600,7 +2663,7 @@
       <x:c r="K28" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L28" s="5" t="n">
+      <x:c r="L28" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M28" s="1" t="n">
@@ -2610,7 +2673,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O28" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P28" s="1" t="n">
         <x:v>2</x:v>
@@ -2618,13 +2681,13 @@
       <x:c r="Q28" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R28" s="6" t="s">
+      <x:c r="R28" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S28" s="1" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T28" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T28" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
@@ -2633,33 +2696,33 @@
       <x:c r="V28" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W28" s="7" t="n">
+      <x:c r="W28" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X28" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="29" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A29" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C29" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D29" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C29" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D29" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F29" s="5" t="n">
+      <x:c r="F29" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G29" s="5" t="n">
+      <x:c r="G29" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
@@ -2674,7 +2737,7 @@
       <x:c r="K29" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L29" s="5" t="n">
+      <x:c r="L29" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M29" s="1" t="n">
@@ -2684,7 +2747,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O29" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="P29" s="1" t="n">
         <x:v>2</x:v>
@@ -2692,13 +2755,13 @@
       <x:c r="Q29" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R29" s="6" t="s">
+      <x:c r="R29" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S29" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="T29" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="T29" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U29" s="1" t="n">
@@ -2707,33 +2770,33 @@
       <x:c r="V29" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W29" s="7" t="n">
+      <x:c r="W29" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X29" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="30" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A30" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C30" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D30" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C30" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D30" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F30" s="5" t="n">
+      <x:c r="F30" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G30" s="5" t="n">
+      <x:c r="G30" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
@@ -2748,7 +2811,7 @@
       <x:c r="K30" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L30" s="5" t="n">
+      <x:c r="L30" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M30" s="1" t="n">
@@ -2758,7 +2821,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O30" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P30" s="1" t="n">
         <x:v>2</x:v>
@@ -2766,13 +2829,13 @@
       <x:c r="Q30" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R30" s="6" t="s">
+      <x:c r="R30" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S30" s="1" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T30" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="T30" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
@@ -2781,33 +2844,33 @@
       <x:c r="V30" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W30" s="7" t="n">
+      <x:c r="W30" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X30" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="31" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A31" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C31" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D31" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C31" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D31" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F31" s="5" t="n">
+      <x:c r="F31" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G31" s="5" t="n">
+      <x:c r="G31" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
@@ -2822,7 +2885,7 @@
       <x:c r="K31" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L31" s="5" t="n">
+      <x:c r="L31" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M31" s="1" t="n">
@@ -2832,7 +2895,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O31" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P31" s="1" t="n">
         <x:v>2</x:v>
@@ -2840,13 +2903,13 @@
       <x:c r="Q31" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R31" s="6" t="s">
+      <x:c r="R31" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S31" s="1" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="T31" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="T31" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
@@ -2855,33 +2918,33 @@
       <x:c r="V31" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W31" s="7" t="n">
+      <x:c r="W31" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X31" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="32" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A32" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C32" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D32" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C32" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D32" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F32" s="5" t="n">
+      <x:c r="F32" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G32" s="5" t="n">
+      <x:c r="G32" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
@@ -2896,7 +2959,7 @@
       <x:c r="K32" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L32" s="5" t="n">
+      <x:c r="L32" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M32" s="1" t="n">
@@ -2906,7 +2969,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O32" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P32" s="1" t="n">
         <x:v>2</x:v>
@@ -2914,13 +2977,13 @@
       <x:c r="Q32" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R32" s="6" t="s">
+      <x:c r="R32" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S32" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="T32" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="T32" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
@@ -2929,33 +2992,33 @@
       <x:c r="V32" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W32" s="7" t="n">
+      <x:c r="W32" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X32" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="33" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A33" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C33" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D33" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C33" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D33" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F33" s="5" t="n">
+      <x:c r="F33" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G33" s="5" t="n">
+      <x:c r="G33" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
@@ -2970,7 +3033,7 @@
       <x:c r="K33" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L33" s="5" t="n">
+      <x:c r="L33" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M33" s="1" t="n">
@@ -2980,7 +3043,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O33" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P33" s="1" t="n">
         <x:v>2</x:v>
@@ -2988,13 +3051,13 @@
       <x:c r="Q33" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R33" s="6" t="s">
+      <x:c r="R33" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S33" s="1" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T33" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="T33" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
@@ -3003,33 +3066,33 @@
       <x:c r="V33" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W33" s="7" t="n">
+      <x:c r="W33" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X33" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="34" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A34" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C34" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D34" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C34" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D34" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F34" s="5" t="n">
+      <x:c r="F34" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G34" s="5" t="n">
+      <x:c r="G34" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
@@ -3044,7 +3107,7 @@
       <x:c r="K34" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L34" s="5" t="n">
+      <x:c r="L34" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M34" s="1" t="n">
@@ -3054,7 +3117,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O34" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P34" s="1" t="n">
         <x:v>2</x:v>
@@ -3062,13 +3125,13 @@
       <x:c r="Q34" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R34" s="6" t="s">
+      <x:c r="R34" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S34" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="T34" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="T34" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U34" s="1" t="n">
@@ -3077,33 +3140,33 @@
       <x:c r="V34" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W34" s="7" t="n">
+      <x:c r="W34" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X34" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="35" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A35" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C35" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D35" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C35" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D35" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F35" s="5" t="n">
+      <x:c r="F35" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G35" s="5" t="n">
+      <x:c r="G35" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
@@ -3118,7 +3181,7 @@
       <x:c r="K35" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L35" s="5" t="n">
+      <x:c r="L35" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M35" s="1" t="n">
@@ -3128,7 +3191,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O35" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P35" s="1" t="n">
         <x:v>2</x:v>
@@ -3136,13 +3199,13 @@
       <x:c r="Q35" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R35" s="6" t="s">
+      <x:c r="R35" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S35" s="1" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T35" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T35" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
@@ -3151,33 +3214,33 @@
       <x:c r="V35" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W35" s="7" t="n">
+      <x:c r="W35" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X35" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="36" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
       <x:c r="A36" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C36" s="4">
-        <x:v>44684.9104393403</x:v>
-      </x:c>
-      <x:c r="D36" s="4">
-        <x:v>44684.9104393403</x:v>
+      <x:c r="C36" s="5">
+        <x:v>44685.4788959491</x:v>
+      </x:c>
+      <x:c r="D36" s="5">
+        <x:v>44685.4788959491</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F36" s="5" t="n">
+      <x:c r="F36" s="6" t="n">
         <x:v>0.208333333333333</x:v>
       </x:c>
-      <x:c r="G36" s="5" t="n">
+      <x:c r="G36" s="6" t="n">
         <x:v>0.416666666666667</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
@@ -3192,7 +3255,7 @@
       <x:c r="K36" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L36" s="5" t="n">
+      <x:c r="L36" s="6" t="n">
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="M36" s="1" t="n">
@@ -3202,7 +3265,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O36" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P36" s="1" t="n">
         <x:v>2</x:v>
@@ -3210,13 +3273,13 @@
       <x:c r="Q36" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R36" s="6" t="s">
+      <x:c r="R36" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="S36" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="T36" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="T36" s="8" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
@@ -3225,28 +3288,29 @@
       <x:c r="V36" s="1" t="n">
         <x:v>-2</x:v>
       </x:c>
-      <x:c r="W36" s="7" t="n">
+      <x:c r="W36" s="8" t="n">
         <x:v>-3</x:v>
       </x:c>
       <x:c r="X36" s="1" t="n">
         <x:v>-4</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:25" customFormat="1" ht="15.218096" customHeight="1">
-      <x:c r="T40" s="1" t="s">
+    <x:row r="39" spans="1:25" customFormat="1" ht="13.834633" customHeight="1">
+      <x:c r="T39" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="U40" s="1" t="n">
+      <x:c r="U39" s="1" t="n">
         <x:v>-35</x:v>
       </x:c>
-      <x:c r="V40" s="1" t="n">
+      <x:c r="V39" s="1" t="n">
         <x:v>-70</x:v>
       </x:c>
-      <x:c r="W40" s="1" t="n">
+      <x:c r="W39" s="1" t="n">
         <x:v>-140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:X37"/>
   <x:conditionalFormatting sqref="S1:S36">
     <x:cfRule type="dataBar" priority="1">
       <x:dataBar showValue="1">
@@ -3256,415 +3320,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{309e02df-75ac-4978-a49a-b9e2cc2dcd96}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="2">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56503fdc-57f4-4ff4-a408-f01ab45805fe}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="3">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e67180a7-bc9b-4f34-9399-2d05d10cedc6}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="4">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9dfaadd-9149-4f50-8bf5-8721f22ca07a}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="5">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d6d503e4-bf3c-45a3-8443-f73a1d612fa9}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="6">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e68f48d-5ea2-4004-8968-676548d39980}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="7">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{492eeb58-16d8-434c-b123-7b71e52a23ab}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="8">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fc3fd9d-bb81-4556-b590-341bbe699ff3}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="9">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9209492-3bd3-49d5-a65b-9b2a10616479}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="10">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d4ea21a8-546b-4a6d-8ee4-65c30426a78e}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="11">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a60c99f7-6f02-469b-ba1a-25835a3a6ece}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="12">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f5e4c64-00ec-4069-b0a1-38f190b89ac1}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="13">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f742b4a-f6f1-4ef5-933d-be4fba09d269}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="14">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ffe367b2-3067-4690-bd97-43ae03e9da41}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="15">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{defa4b1a-7339-4c1e-8185-84c1e33267a1}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="16">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{613621d9-869f-4a09-a286-788221efd1f5}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="17">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d81ac273-0770-4ed0-9c67-1e361316ff1d}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="18">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7cd50127-2efd-479b-aa8d-46832b4aa4bb}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="19">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c817432-a7e1-4d84-9d02-18e54fd49f93}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="20">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef03272a-40d7-4418-a3f2-410e87afa624}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="21">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ea3481df-86bc-4223-82b8-4c6a9c4b94ab}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="22">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57fdadf4-c90d-4cf8-b651-a90236f9a34c}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="23">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9a93b8a-956c-4209-ae75-8b95937a0870}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="24">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67e1973c-f210-4962-9821-a73f3446af68}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="25">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b226d547-db80-4b8b-a9da-fe089ea2ab85}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="26">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ee645a5-a5b3-4e9f-99b5-b46f40431a5c}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="27">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e2a9992-a0dd-41e2-aeeb-9de94716dd1c}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="28">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15b6112d-e35f-4156-9cd7-7105ac37f757}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="29">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{162ab960-84f9-4828-a39f-85abdb1c02cb}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="30">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10e79fca-2236-4931-875c-9989d82d964a}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="31">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{065fce0d-399a-4556-b4da-7c6d63a21a91}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="32">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9051c638-7ec0-43a0-a38a-c1a0bbe75908}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="33">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b22e82c3-13ce-4736-a8ca-b2d1af54cdf9}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="34">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18f3640a-ca95-46bc-adc4-b9383fe40bf7}</x14:id>
-        </x:ext>
-      </x:extLst>
-    </x:cfRule>
-    <x:cfRule type="dataBar" priority="35">
-      <x:dataBar showValue="1">
-        <x:cfvo type="min" val="0"/>
-        <x:cfvo type="max" val="0"/>
-        <x:color rgb="FF008000"/>
-      </x:dataBar>
-      <x:extLst>
-        <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef5d7c3f-464f-4486-8230-8a7061c96677}</x14:id>
+          <x14:id>{014dd6e7-89f8-435a-bcdc-05445262b642}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -3678,517 +3334,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{309e02df-75ac-4978-a49a-b9e2cc2dcd96}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56503fdc-57f4-4ff4-a408-f01ab45805fe}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e67180a7-bc9b-4f34-9399-2d05d10cedc6}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9dfaadd-9149-4f50-8bf5-8721f22ca07a}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d6d503e4-bf3c-45a3-8443-f73a1d612fa9}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3e68f48d-5ea2-4004-8968-676548d39980}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{492eeb58-16d8-434c-b123-7b71e52a23ab}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7fc3fd9d-bb81-4556-b590-341bbe699ff3}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c9209492-3bd3-49d5-a65b-9b2a10616479}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d4ea21a8-546b-4a6d-8ee4-65c30426a78e}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a60c99f7-6f02-469b-ba1a-25835a3a6ece}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f5e4c64-00ec-4069-b0a1-38f190b89ac1}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f742b4a-f6f1-4ef5-933d-be4fba09d269}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ffe367b2-3067-4690-bd97-43ae03e9da41}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{defa4b1a-7339-4c1e-8185-84c1e33267a1}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{613621d9-869f-4a09-a286-788221efd1f5}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d81ac273-0770-4ed0-9c67-1e361316ff1d}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7cd50127-2efd-479b-aa8d-46832b4aa4bb}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c817432-a7e1-4d84-9d02-18e54fd49f93}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef03272a-40d7-4418-a3f2-410e87afa624}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ea3481df-86bc-4223-82b8-4c6a9c4b94ab}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57fdadf4-c90d-4cf8-b651-a90236f9a34c}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9a93b8a-956c-4209-ae75-8b95937a0870}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67e1973c-f210-4962-9821-a73f3446af68}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b226d547-db80-4b8b-a9da-fe089ea2ab85}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ee645a5-a5b3-4e9f-99b5-b46f40431a5c}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e2a9992-a0dd-41e2-aeeb-9de94716dd1c}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15b6112d-e35f-4156-9cd7-7105ac37f757}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{162ab960-84f9-4828-a39f-85abdb1c02cb}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10e79fca-2236-4931-875c-9989d82d964a}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{065fce0d-399a-4556-b4da-7c6d63a21a91}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9051c638-7ec0-43a0-a38a-c1a0bbe75908}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b22e82c3-13ce-4736-a8ca-b2d1af54cdf9}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18f3640a-ca95-46bc-adc4-b9383fe40bf7}">
-            <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FF008000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef5d7c3f-464f-4486-8230-8a7061c96677}">
+          <x14:cfRule type="dataBar" id="{014dd6e7-89f8-435a-bcdc-05445262b642}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4206,4 +3352,168 @@
     </x:ext>
   </x:extLst>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H12"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.350625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.970625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="31.490625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="6.970625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.670625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="22.850625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="3" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="A3" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B3" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D3" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E3" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="A4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>-105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="A6" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B6" s="9" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G6" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="9" t="n">
+        <x:v>-105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="D7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="D8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="D9" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G9" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H9" s="9" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="G10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="G11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>-140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" customFormat="1" ht="15.218096" customHeight="1">
+      <x:c r="G12" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H12" s="9" t="n">
+        <x:v>-140</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>